--- a/Features.xlsx
+++ b/Features.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>Priority</t>
   </si>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>Pick random user from thread activity (blacklist?)</t>
+  </si>
+  <si>
+    <t>Hide various aspects of postbit information</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Forum/Thread</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Thread/Profile</t>
+  </si>
+  <si>
+    <t>Forum</t>
   </si>
 </sst>
 </file>
@@ -296,7 +317,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H45" totalsRowShown="0">
-  <autoFilter ref="D3:H45"/>
+  <autoFilter ref="D3:H45">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="D4:H45">
     <sortCondition ref="F3:F45"/>
   </sortState>
@@ -610,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +644,7 @@
     <col min="4" max="4" width="26.88671875" customWidth="1"/>
     <col min="5" max="5" width="44.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:8" x14ac:dyDescent="0.3">
@@ -657,6 +682,9 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
@@ -668,6 +696,9 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
@@ -679,6 +710,9 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
@@ -690,6 +724,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -698,6 +735,9 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
@@ -709,6 +749,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -720,6 +763,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
@@ -731,6 +777,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
@@ -739,6 +788,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
@@ -750,6 +802,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
@@ -761,6 +816,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
@@ -769,8 +827,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>56</v>
       </c>
@@ -780,24 +841,33 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>58</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>60</v>
       </c>
@@ -807,8 +877,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>62</v>
       </c>
@@ -818,8 +891,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>64</v>
       </c>
@@ -829,8 +905,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>66</v>
       </c>
@@ -840,8 +919,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -849,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>18</v>
       </c>
@@ -859,8 +941,11 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>24</v>
       </c>
@@ -870,8 +955,11 @@
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>30</v>
       </c>
@@ -881,48 +969,69 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>38</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>39</v>
       </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>45</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>47</v>
       </c>
@@ -930,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>49</v>
       </c>
@@ -940,8 +1049,11 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>54</v>
       </c>
@@ -952,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>68</v>
       </c>
@@ -962,8 +1074,11 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>70</v>
       </c>
@@ -974,15 +1089,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>15</v>
       </c>
@@ -993,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>22</v>
       </c>
@@ -1003,8 +1121,11 @@
       <c r="F40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>26</v>
       </c>
@@ -1014,16 +1135,22 @@
       <c r="F41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>41</v>
       </c>
@@ -1033,8 +1160,11 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>43</v>
       </c>
@@ -1044,13 +1174,19 @@
       <c r="F44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>48</v>
       </c>
       <c r="F45">
         <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11498" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Priority</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Forum</t>
+  </si>
+  <si>
+    <t>RepCharts</t>
+  </si>
+  <si>
+    <t>Reputation</t>
   </si>
 </sst>
 </file>
@@ -316,14 +322,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H45" totalsRowShown="0">
-  <autoFilter ref="D3:H45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H46" totalsRowShown="0">
+  <autoFilter ref="D3:H46">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="D4:H45">
-    <sortCondition ref="F3:F45"/>
+  <sortState ref="D4:H46">
+    <sortCondition ref="F3:F46"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Feature"/>
@@ -633,21 +639,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H45"/>
+  <dimension ref="D3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
+    <col min="5" max="5" width="44.53125" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -664,15 +670,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -686,7 +698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -700,7 +712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -714,7 +726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -728,7 +740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -739,7 +751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -753,7 +765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>28</v>
       </c>
@@ -767,7 +779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -781,7 +793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>35</v>
       </c>
@@ -792,7 +804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>36</v>
       </c>
@@ -806,7 +818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>51</v>
       </c>
@@ -820,7 +832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>53</v>
       </c>
@@ -831,7 +843,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>56</v>
       </c>
@@ -845,7 +857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>58</v>
       </c>
@@ -856,7 +868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>59</v>
       </c>
@@ -867,7 +879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>60</v>
       </c>
@@ -881,7 +893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>62</v>
       </c>
@@ -895,7 +907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>64</v>
       </c>
@@ -909,228 +921,228 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>19</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>50</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>55</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
         <v>68</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>69</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>71</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
         <v>6</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="G40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -1139,9 +1151,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1150,12 +1165,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1164,12 +1176,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1178,14 +1190,28 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11498" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Priority</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Reputation</t>
+  </si>
+  <si>
+    <t>PM from Post</t>
   </si>
 </sst>
 </file>
@@ -322,14 +325,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H46" totalsRowShown="0">
-  <autoFilter ref="D3:H46">
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="D4:H46">
-    <sortCondition ref="F3:F46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H47" totalsRowShown="0">
+  <autoFilter ref="D3:H47"/>
+  <sortState ref="D4:H47">
+    <sortCondition ref="F3:F47"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Feature"/>
@@ -639,21 +638,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H46"/>
+  <dimension ref="D3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="26.86328125" customWidth="1"/>
-    <col min="5" max="5" width="44.53125" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -670,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -684,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -698,7 +697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -712,7 +711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -726,7 +725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -740,7 +739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -751,7 +750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -765,7 +764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>28</v>
       </c>
@@ -779,7 +778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -793,7 +792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>35</v>
       </c>
@@ -804,7 +803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>36</v>
       </c>
@@ -818,7 +817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>51</v>
       </c>
@@ -832,7 +831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>53</v>
       </c>
@@ -843,7 +842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>56</v>
       </c>
@@ -857,306 +856,303 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="4:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>80</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>67</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D27" t="s">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D28" t="s">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D29" t="s">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D30" t="s">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D31" t="s">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>72</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D32" t="s">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D34" t="s">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D35" t="s">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D36" t="s">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>55</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D37" t="s">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
         <v>68</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>69</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>70</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D39" t="s">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
         <v>6</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
-      <c r="G41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1165,9 +1161,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1176,12 +1175,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1190,12 +1186,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1204,14 +1200,28 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>Priority</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Locally/ Sync?</t>
   </si>
   <si>
-    <t>User Tag</t>
-  </si>
-  <si>
     <t>OP (1st page - save URL with UID), Local/Sync?</t>
   </si>
   <si>
@@ -270,6 +267,27 @@
   </si>
   <si>
     <t>PM from Post</t>
+  </si>
+  <si>
+    <t>Hide Forum</t>
+  </si>
+  <si>
+    <t>Soft/ Hide</t>
+  </si>
+  <si>
+    <t>New Posts</t>
+  </si>
+  <si>
+    <t>1: Complete</t>
+  </si>
+  <si>
+    <t>0: Removed</t>
+  </si>
+  <si>
+    <t>Post Option - Find all Posts</t>
+  </si>
+  <si>
+    <t>Use 'View Your Post' feature</t>
   </si>
 </sst>
 </file>
@@ -325,10 +343,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H47" totalsRowShown="0">
-  <autoFilter ref="D3:H47"/>
-  <sortState ref="D4:H47">
-    <sortCondition ref="F3:F47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:H49" totalsRowShown="0">
+  <autoFilter ref="D3:H49">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="D4:H49">
+    <sortCondition ref="F3:F49"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Feature"/>
@@ -638,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H47"/>
+  <dimension ref="D2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,9 +674,15 @@
     <col min="5" max="5" width="44.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -668,8 +698,11 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -677,13 +710,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -694,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -708,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -722,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -736,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -747,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -761,10 +794,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>28</v>
       </c>
@@ -775,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -789,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>35</v>
       </c>
@@ -800,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>36</v>
       </c>
@@ -814,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>51</v>
       </c>
@@ -828,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>53</v>
       </c>
@@ -839,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>56</v>
       </c>
@@ -853,21 +886,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>58</v>
       </c>
@@ -875,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>59</v>
       </c>
@@ -886,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>60</v>
       </c>
@@ -900,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>62</v>
       </c>
@@ -914,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>64</v>
       </c>
@@ -928,24 +961,24 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>66</v>
       </c>
@@ -956,273 +989,301 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+    <row r="37" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
         <v>49</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>50</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>55</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
         <v>68</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
         <v>69</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+      <c r="E41" t="s">
         <v>70</v>
       </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>6</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>23</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
